--- a/src/je/panse/doro/fourgate/symptom/subjective_data/SymptList.xlsx
+++ b/src/je/panse/doro/fourgate/symptom/subjective_data/SymptList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t xml:space="preserve">DM</t>
   </si>
@@ -77,11 +77,6 @@
     <t xml:space="preserve">Fever</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain in the center of the chest 
-that can feel like pressure, fullness, or squeezing 
-That lasts more than a few minutes</t>
-  </si>
-  <si>
     <t xml:space="preserve">increased hunger</t>
   </si>
   <si>
@@ -100,10 +95,6 @@
     <t xml:space="preserve">Bloody stool</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain moving from the chest 
-To shoulders, arms, back, or jaw</t>
-  </si>
-  <si>
     <t xml:space="preserve">fatigue</t>
   </si>
   <si>
@@ -122,9 +113,6 @@
     <t xml:space="preserve">Nausea and vomiting that doesn’t resolve</t>
   </si>
   <si>
-    <t xml:space="preserve">Shortness of breath</t>
-  </si>
-  <si>
     <t xml:space="preserve">blurred vision</t>
   </si>
   <si>
@@ -143,9 +131,6 @@
     <t xml:space="preserve">Weight loss</t>
   </si>
   <si>
-    <t xml:space="preserve">Nausea and vomiting</t>
-  </si>
-  <si>
     <t xml:space="preserve">numbness or tingling in the feet or hands</t>
   </si>
   <si>
@@ -158,9 +143,6 @@
     <t xml:space="preserve">Yellowish skin</t>
   </si>
   <si>
-    <t xml:space="preserve">Sweating</t>
-  </si>
-  <si>
     <t xml:space="preserve">muscle aches and weakness</t>
   </si>
   <si>
@@ -179,9 +161,6 @@
     <t xml:space="preserve">Abdomen very tender to touch</t>
   </si>
   <si>
-    <t xml:space="preserve">Feeling faint</t>
-  </si>
-  <si>
     <t xml:space="preserve">unexplained weight loss</t>
   </si>
   <si>
@@ -227,8 +206,7 @@
     <t xml:space="preserve">Hair loss and change in hair texture (brittle).</t>
   </si>
   <si>
-    <t xml:space="preserve">pain, numbness and a tingling sensation 
-    In the hand and fingers (carpal tunnel syndrome)</t>
+    <t xml:space="preserve">pain, numbness and a tingling sensation In the hand and fingers</t>
   </si>
   <si>
     <t xml:space="preserve">Diarrhea and more frequent bowel movements</t>
@@ -322,28 +300,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -420,63 +402,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="32.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="39.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="39.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -492,367 +474,325 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="24.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="49.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="49.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/je/panse/doro/fourgate/symptom/subjective_data/SymptList.xlsx
+++ b/src/je/panse/doro/fourgate/symptom/subjective_data/SymptList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t xml:space="preserve">DM</t>
   </si>
@@ -77,6 +77,9 @@
     <t xml:space="preserve">Fever</t>
   </si>
   <si>
+    <t xml:space="preserve">a dull pain or pressure sensation</t>
+  </si>
+  <si>
     <t xml:space="preserve">increased hunger</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t xml:space="preserve">Bloody stool</t>
   </si>
   <si>
+    <t xml:space="preserve">...get worse when breathing in</t>
+  </si>
+  <si>
     <t xml:space="preserve">fatigue</t>
   </si>
   <si>
@@ -113,6 +119,9 @@
     <t xml:space="preserve">Nausea and vomiting that doesn’t resolve</t>
   </si>
   <si>
+    <t xml:space="preserve">...get better with leaning forward</t>
+  </si>
+  <si>
     <t xml:space="preserve">blurred vision</t>
   </si>
   <si>
@@ -131,6 +140,9 @@
     <t xml:space="preserve">Weight loss</t>
   </si>
   <si>
+    <t xml:space="preserve">...be worse when you push on the chest</t>
+  </si>
+  <si>
     <t xml:space="preserve">numbness or tingling in the feet or hands</t>
   </si>
   <si>
@@ -161,6 +173,9 @@
     <t xml:space="preserve">Abdomen very tender to touch</t>
   </si>
   <si>
+    <t xml:space="preserve">...be worse with eating</t>
+  </si>
+  <si>
     <t xml:space="preserve">unexplained weight loss</t>
   </si>
   <si>
@@ -173,6 +188,9 @@
     <t xml:space="preserve">Swollen abdomen</t>
   </si>
   <si>
+    <t xml:space="preserve">... Pain spread to the back.</t>
+  </si>
+  <si>
     <t xml:space="preserve">unexplained weight gain</t>
   </si>
   <si>
@@ -182,6 +200,25 @@
     <t xml:space="preserve">muscle cramps</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Pain that spreads to the arms or neck</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">polyphagia, polydipsia and polyuria</t>
   </si>
   <si>
@@ -191,22 +228,34 @@
     <t xml:space="preserve">dry and scaly skin</t>
   </si>
   <si>
+    <t xml:space="preserve">...come on suddenly</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sleep issues.</t>
   </si>
   <si>
     <t xml:space="preserve">brittle hair and nails</t>
   </si>
   <si>
+    <t xml:space="preserve">... last for hours or days</t>
+  </si>
+  <si>
     <t xml:space="preserve">Feeling shaky and/or nervous</t>
   </si>
   <si>
     <t xml:space="preserve">loss of libido (sex drive)</t>
   </si>
   <si>
+    <t xml:space="preserve">Cough or shortness of breath</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hair loss and change in hair texture (brittle).</t>
   </si>
   <si>
     <t xml:space="preserve">pain, numbness and a tingling sensation In the hand and fingers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painful or difficulty swallowing</t>
   </si>
   <si>
     <t xml:space="preserve">Diarrhea and more frequent bowel movements</t>
@@ -222,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK KR"/>
@@ -250,6 +299,11 @@
       <name val="Noto Sans CJK KR"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK KR"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -402,17 +456,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="32.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="32.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="39.62"/>
   </cols>
@@ -467,30 +521,31 @@
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Regular"Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,보통"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,보통"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="24.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="49.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="41.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="42.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -512,7 +567,9 @@
       <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -533,147 +590,166 @@
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -695,16 +771,19 @@
       <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -714,17 +793,20 @@
       </c>
       <c r="F11" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -734,6 +816,9 @@
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -741,10 +826,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -754,6 +839,9 @@
       </c>
       <c r="F13" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -761,10 +849,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
@@ -774,6 +862,9 @@
       </c>
       <c r="F14" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -781,10 +872,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -801,8 +892,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>